--- a/Bases/Informes_2024.xlsx
+++ b/Bases/Informes_2024.xlsx
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Paolo Valcarcel Pineda</author>
+  </authors>
+  <commentList>
+    <comment ref="R13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Paolo Valcarcel Pineda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Máximo en todo quitando datos que no se repiten</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7681" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7680" uniqueCount="1398">
   <si>
     <t>Informes</t>
   </si>
@@ -7079,9 +7113,6 @@
 toda vez que, mantuvo en almacenamiento por más de doce meses
 los residuos peligrosos generados de febrero 2020.</t>
   </si>
-  <si>
-    <t>Máximo en todo quitando datos que no se repiten</t>
-  </si>
 </sst>
 </file>
 
@@ -7091,13 +7122,26 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -7793,12 +7837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S932"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R932"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7822,7 +7866,7 @@
     <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>534</v>
       </c>
@@ -7878,7 +7922,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -7928,7 +7972,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -7978,7 +8022,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8028,7 +8072,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8078,7 +8122,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -8130,7 +8174,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -8178,7 +8222,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -8226,7 +8270,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -8256,7 +8300,7 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -8308,7 +8352,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -8360,7 +8404,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -8412,7 +8456,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -8465,11 +8509,8 @@
       <c r="R13" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="S13" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -8523,7 +8564,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -8575,7 +8616,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -55405,6 +55446,7 @@
   <autoFilter ref="A1:R932"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
